--- a/Document/요구사항1711122발표.xlsx
+++ b/Document/요구사항1711122발표.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-505\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8790" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1번" sheetId="1" r:id="rId1"/>
     <sheet name="2번" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>1.1 컴퓨터 화면 이미지에서 수식을 인식</t>
   </si>
@@ -193,9 +197,6 @@
     <t>1.2.1.3. 최근 불러온 순서대로 보여줄 수 있어야 한다.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 1. 1. 기본으로 지정된 구역이 있고, 사용자가 인식할 구역을 임의로 지정할 수 있어야 한다. </t>
-  </si>
-  <si>
     <t>1.1 카메라로 수식을 촬영하여 인식</t>
   </si>
   <si>
@@ -274,24 +275,6 @@
     <t>4.1 사용 설명을 제공해야 한다.</t>
   </si>
   <si>
-    <t>4.3 과거의 풀이를 확인할 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>4.3.1. 시간 순서대로 풀이를 보여줄 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>4.3.1.1. 최근 순서대로 보여줄 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>4.3.1.2. 오래된 순서대로 보여줄 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>4.3.2. 많이 열어본 순서대로 보여줄 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>4.3.3. 과거의 풀이를 즐겨찾기하여 모아 볼 수 있어야 한다.</t>
-  </si>
-  <si>
     <t>5.1. 사칙연산 기호와 등호를 인식할 수 있어야 한다.</t>
   </si>
   <si>
@@ -476,338 +459,98 @@
   </si>
   <si>
     <t>2.1. 보여줄수 있는 결과(값의 해, 그래프, 풀이) 중 사용자가 원하는 결과를 표시해 주어야 한다.</t>
+  </si>
+  <si>
+    <t>4.2 과거의 풀이를 확인할 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>4.2.1. 시간 순서대로 풀이를 보여줄 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>4.2.1.1. 최근 순서대로 보여줄 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>4.2.1.2. 오래된 순서대로 보여줄 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>4.2.2. 많이 열어본 순서대로 보여줄 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>4.2.3. 과거의 풀이를 즐겨찾기하여 모아 볼 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1. 기본으로 지정된 구역이 있고, 사용자가 인식할 구역을 임의로 지정할 수 있어야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="HY중고딕"/>
-      <color theme="1"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -818,9 +561,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -829,9 +570,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -842,9 +581,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -853,9 +590,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -864,9 +599,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -877,9 +610,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -888,9 +619,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -901,9 +630,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -912,9 +639,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -927,9 +652,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -940,9 +663,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -951,9 +672,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -966,9 +685,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -977,9 +694,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -990,9 +705,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1005,9 +718,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1016,9 +727,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1029,9 +738,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1042,9 +749,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1055,268 +760,17 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,146 +778,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="3">
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1484,7 +901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1507,7 +930,9 @@
           <a:off x="0" y="10382250"/>
           <a:ext cx="8867775" cy="6286500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
@@ -1812,27 +1237,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="1" width="3.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="6" style="1" width="11.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="1" width="3.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="1" width="2.38000000" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="1" width="3.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="17" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="18" max="18" style="1" width="2.38000000" customWidth="1" outlineLevel="0"/>
-    <col min="19" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="1" customWidth="1"/>
+    <col min="11" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.000000" customHeight="1">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1852,7 +1278,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="27.000000" customHeight="1">
+    <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
@@ -1874,7 +1300,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1894,7 +1320,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="16" t="s">
         <v>23</v>
@@ -1916,7 +1342,7 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
@@ -1938,7 +1364,7 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="17"/>
       <c r="C6" s="6" t="s">
@@ -1960,7 +1386,7 @@
       <c r="Q6" s="20"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
@@ -1982,7 +1408,7 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
@@ -2004,7 +1430,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
@@ -2026,7 +1452,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="17"/>
       <c r="C10" s="6"/>
@@ -2046,7 +1472,7 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="16" t="s">
         <v>19</v>
@@ -2068,7 +1494,7 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
@@ -2090,7 +1516,7 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
@@ -2112,7 +1538,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
@@ -2134,7 +1560,7 @@
       <c r="Q14" s="20"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="17"/>
       <c r="C15" s="6"/>
@@ -2154,7 +1580,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="16" t="s">
         <v>20</v>
@@ -2176,7 +1602,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
@@ -2198,7 +1624,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="17"/>
       <c r="C18" s="6" t="s">
@@ -2220,7 +1646,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="17"/>
       <c r="C19" s="6"/>
@@ -2240,7 +1666,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="16" t="s">
         <v>26</v>
@@ -2262,7 +1688,7 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
@@ -2284,7 +1710,7 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
@@ -2306,7 +1732,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
@@ -2328,7 +1754,7 @@
       <c r="Q23" s="20"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="17"/>
       <c r="C24" s="6"/>
@@ -2348,7 +1774,7 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="16" t="s">
         <v>29</v>
@@ -2370,7 +1796,7 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
@@ -2392,7 +1818,7 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="17"/>
       <c r="C27" s="6"/>
@@ -2414,7 +1840,7 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="17"/>
       <c r="C28" s="6"/>
@@ -2436,7 +1862,7 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="17"/>
       <c r="C29" s="6" t="s">
@@ -2458,7 +1884,7 @@
       <c r="Q29" s="20"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="17"/>
       <c r="C30" s="6" t="s">
@@ -2480,7 +1906,7 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="6" t="s">
@@ -2502,7 +1928,7 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="17"/>
       <c r="C32" s="6"/>
@@ -2524,7 +1950,7 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="17"/>
       <c r="C33" s="6"/>
@@ -2546,7 +1972,7 @@
       <c r="Q33" s="20"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="17"/>
       <c r="C34" s="6"/>
@@ -2568,7 +1994,7 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="17"/>
       <c r="C35" s="6" t="s">
@@ -2590,7 +2016,7 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="17"/>
       <c r="C36" s="6"/>
@@ -2612,7 +2038,7 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="17"/>
       <c r="C37" s="6"/>
@@ -2634,7 +2060,7 @@
       <c r="Q37" s="20"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="17"/>
       <c r="C38" s="6"/>
@@ -2656,7 +2082,7 @@
       <c r="Q38" s="20"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="17"/>
       <c r="C39" s="6" t="s">
@@ -2678,7 +2104,7 @@
       <c r="Q39" s="20"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="17"/>
       <c r="C40" s="6" t="s">
@@ -2700,7 +2126,7 @@
       <c r="Q40" s="20"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="17"/>
       <c r="C41" s="6"/>
@@ -2722,7 +2148,7 @@
       <c r="Q41" s="20"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="17"/>
       <c r="C42" s="6" t="s">
@@ -2744,7 +2170,7 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="17"/>
       <c r="C43" s="6" t="s">
@@ -2766,7 +2192,7 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="17"/>
       <c r="C44" s="6"/>
@@ -2788,7 +2214,7 @@
       <c r="Q44" s="20"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="17"/>
       <c r="C45" s="6" t="s">
@@ -2810,7 +2236,7 @@
       <c r="Q45" s="20"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="17"/>
       <c r="C46" s="6"/>
@@ -2832,7 +2258,7 @@
       <c r="Q46" s="20"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="17"/>
       <c r="C47" s="6"/>
@@ -2854,7 +2280,7 @@
       <c r="Q47" s="20"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="17"/>
       <c r="C48" s="6"/>
@@ -2876,7 +2302,7 @@
       <c r="Q48" s="20"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="17"/>
       <c r="C49" s="6"/>
@@ -2898,7 +2324,7 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="17"/>
       <c r="C50" s="6" t="s">
@@ -2920,7 +2346,7 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="18"/>
       <c r="C51" s="13"/>
@@ -2940,7 +2366,7 @@
       <c r="Q51" s="21"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="1:18" ht="14.250000">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2960,42 +2386,42 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
@@ -3017,7 +2443,7 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
@@ -3026,90 +2452,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P97"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" style="26" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="D4" s="26" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="D5" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D8" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C11" s="25" t="s">
         <v>55</v>
       </c>
@@ -3117,26 +2544,26 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D12" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E13" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E14" s="25" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E15" s="25" t="s">
         <v>57</v>
       </c>
@@ -3144,92 +2571,92 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="25" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="D18" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E20" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D26" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D27" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -3237,54 +2664,52 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D29" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D30" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E31" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E32" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="25"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E33" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="25"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="2:15">
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3292,77 +2717,75 @@
       <c r="F35" s="25"/>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
       <c r="C37" s="25" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="D38" s="25" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="N38" s="25"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D39" s="25"/>
       <c r="E39" s="25" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F39" s="25"/>
       <c r="N39" s="25"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D40" s="25"/>
       <c r="E40" s="25" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="N40" s="25"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D41" s="25" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="N41" s="25"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D42" s="25" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="F42" s="25"/>
       <c r="N42" s="25"/>
     </row>
-    <row r="43" spans="2:15">
-      <c r="D43" s="26"/>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="N43" s="25"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C44" s="25"/>
-      <c r="F44" s="26"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="25"/>
       <c r="F45" s="25"/>
       <c r="L45" s="25"/>
@@ -3370,90 +2793,86 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
     </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
     </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="26"/>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
     </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="26"/>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="25"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="25"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="25"/>
     </row>
-    <row r="77" spans="16:16">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P77" s="27"/>
     </row>
-    <row r="92" spans="9:12">
+    <row r="92" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I92" s="25"/>
     </row>
-    <row r="93" spans="9:12">
+    <row r="93" spans="9:12" x14ac:dyDescent="0.3">
       <c r="L93" s="25"/>
     </row>
-    <row r="94" spans="9:12">
+    <row r="94" spans="9:12" x14ac:dyDescent="0.3">
       <c r="L94" s="25"/>
     </row>
-    <row r="95" spans="9:12">
+    <row r="95" spans="9:12" x14ac:dyDescent="0.3">
       <c r="L95" s="25"/>
     </row>
-    <row r="96" spans="9:12">
+    <row r="96" spans="9:12" x14ac:dyDescent="0.3">
       <c r="L96" s="25"/>
     </row>
-    <row r="97" spans="12:12">
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L97" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H61"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -3462,9 +2881,9 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -3473,9 +2892,9 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -3484,10 +2903,10 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -3495,10 +2914,10 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -3506,9 +2925,9 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -3517,9 +2936,9 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -3528,10 +2947,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -3539,9 +2958,9 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -3550,9 +2969,9 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3561,10 +2980,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -3572,10 +2991,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -3583,10 +3002,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -3594,9 +3013,9 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -3605,9 +3024,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -3616,9 +3035,9 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -3627,9 +3046,9 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -3638,9 +3057,9 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -3649,10 +3068,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -3660,9 +3079,9 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3671,9 +3090,9 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -3682,10 +3101,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -3693,9 +3112,9 @@
       <c r="G23" s="27"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3704,9 +3123,9 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3715,10 +3134,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -3726,10 +3145,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -3737,9 +3156,9 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -3748,9 +3167,9 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -3759,9 +3178,9 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -3770,10 +3189,10 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -3781,10 +3200,10 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -3792,9 +3211,9 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -3803,10 +3222,10 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -3814,10 +3233,10 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -3825,7 +3244,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -3834,177 +3253,177 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="26"/>
       <c r="C40" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>
       <c r="C43" s="26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D43" s="26"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D45" s="26"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="26"/>
       <c r="C46" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="26"/>
       <c r="C48" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D48" s="26"/>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="26"/>
       <c r="C49" s="26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D49" s="26"/>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="26"/>
       <c r="C51" s="26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D51" s="26"/>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="26"/>
       <c r="C52" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D52" s="26"/>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="26"/>
       <c r="C53" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D53" s="26"/>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="26"/>
       <c r="C54" s="26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="26"/>
       <c r="C55" s="26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D55" s="26"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="26"/>
       <c r="C59" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D59" s="26"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="26"/>
       <c r="C60" s="26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D60" s="26"/>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="26"/>
       <c r="C61" s="26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D61" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>